--- a/Code/Results/Cases/Case_3_96/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_96/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.928818662834544</v>
+        <v>0.6104084714485225</v>
       </c>
       <c r="C2">
-        <v>0.5904482424131743</v>
+        <v>0.1929830536217594</v>
       </c>
       <c r="D2">
-        <v>0.01823133385287079</v>
+        <v>0.008214379226505031</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7555615279322012</v>
+        <v>0.5824442739066455</v>
       </c>
       <c r="G2">
-        <v>0.6778702256693236</v>
+        <v>0.4356998002769217</v>
       </c>
       <c r="H2">
-        <v>0.4020972037376822</v>
+        <v>0.5321681332819139</v>
       </c>
       <c r="I2">
-        <v>0.303250601248088</v>
+        <v>0.3877415763175662</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.802634354979062</v>
+        <v>0.893861172343648</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.684925652897306</v>
+        <v>0.5334565221141077</v>
       </c>
       <c r="C3">
-        <v>0.5197155240145719</v>
+        <v>0.1702290875777237</v>
       </c>
       <c r="D3">
-        <v>0.01694529772855802</v>
+        <v>0.007651219918592744</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6740615585465122</v>
+        <v>0.5672997128081363</v>
       </c>
       <c r="G3">
-        <v>0.600440789275595</v>
+        <v>0.4205357837508217</v>
       </c>
       <c r="H3">
-        <v>0.3740045985880442</v>
+        <v>0.5302709733468731</v>
       </c>
       <c r="I3">
-        <v>0.2873032962768036</v>
+        <v>0.3884873060433556</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.382769508245161</v>
+        <v>0.7953148875374296</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.535145510753978</v>
+        <v>0.4860848318545834</v>
       </c>
       <c r="C4">
-        <v>0.4762765769207533</v>
+        <v>0.1561800408025817</v>
       </c>
       <c r="D4">
-        <v>0.01615262688109809</v>
+        <v>0.007303532028423376</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6260371332260206</v>
+        <v>0.558530012890607</v>
       </c>
       <c r="G4">
-        <v>0.5549774155977758</v>
+        <v>0.4116845254989272</v>
       </c>
       <c r="H4">
-        <v>0.3579059748941091</v>
+        <v>0.5295008415172475</v>
       </c>
       <c r="I4">
-        <v>0.2787627805493393</v>
+        <v>0.3893129358044156</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.134474720881116</v>
+        <v>0.7353469505384709</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.47408432144411</v>
+        <v>0.4667508605519686</v>
       </c>
       <c r="C5">
-        <v>0.4585665933575456</v>
+        <v>0.1504355844599274</v>
       </c>
       <c r="D5">
-        <v>0.01582884653261374</v>
+        <v>0.007161388479673292</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6069245451916743</v>
+        <v>0.5550884889733325</v>
       </c>
       <c r="G5">
-        <v>0.5369201127240899</v>
+        <v>0.4081920592744268</v>
       </c>
       <c r="H5">
-        <v>0.3516109506713576</v>
+        <v>0.5292858901985653</v>
       </c>
       <c r="I5">
-        <v>0.2755707883940417</v>
+        <v>0.3897413065160222</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.035265652233491</v>
+        <v>0.7110387731222829</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.463943176959646</v>
+        <v>0.4635387180390751</v>
       </c>
       <c r="C6">
-        <v>0.4556251911862716</v>
+        <v>0.1494805606319289</v>
       </c>
       <c r="D6">
-        <v>0.01577503729363983</v>
+        <v>0.007137758629617963</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6037771963667424</v>
+        <v>0.554524986212698</v>
       </c>
       <c r="G6">
-        <v>0.5339485906610406</v>
+        <v>0.40761902222782</v>
       </c>
       <c r="H6">
-        <v>0.3505810277020345</v>
+        <v>0.5292561590788551</v>
       </c>
       <c r="I6">
-        <v>0.2750574509120476</v>
+        <v>0.389817972692299</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.018900217629707</v>
+        <v>0.7070100368049452</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.534322140221292</v>
+        <v>0.485824205397563</v>
       </c>
       <c r="C7">
-        <v>0.4760377752304237</v>
+        <v>0.1561026470763238</v>
       </c>
       <c r="D7">
-        <v>0.01614826333818797</v>
+        <v>0.007301616856231874</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6257775829979337</v>
+        <v>0.5584830651447561</v>
       </c>
       <c r="G7">
-        <v>0.5547320550167427</v>
+        <v>0.4116369626886041</v>
       </c>
       <c r="H7">
-        <v>0.3578200340138125</v>
+        <v>0.5294975427239308</v>
       </c>
       <c r="I7">
-        <v>0.2787185977995108</v>
+        <v>0.3893183415102115</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.133129269294699</v>
+        <v>0.7350186071727052</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.844719745177542</v>
+        <v>0.5839016822422138</v>
       </c>
       <c r="C8">
-        <v>0.5660577238287772</v>
+        <v>0.1851538293472004</v>
       </c>
       <c r="D8">
-        <v>0.01778854062748181</v>
+        <v>0.008020609943624635</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7270106041740689</v>
+        <v>0.5771120908417089</v>
       </c>
       <c r="G8">
-        <v>0.6507075256078423</v>
+        <v>0.4303752362104518</v>
       </c>
       <c r="H8">
-        <v>0.3921570147601727</v>
+        <v>0.5314318378388236</v>
       </c>
       <c r="I8">
-        <v>0.2974756927236157</v>
+        <v>0.3879220434419537</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.655620388833697</v>
+        <v>0.8597663754030833</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.45398967626079</v>
+        <v>0.7752098721710468</v>
       </c>
       <c r="C9">
-        <v>0.7427981108114921</v>
+        <v>0.2414952437605677</v>
       </c>
       <c r="D9">
-        <v>0.02098098563621775</v>
+        <v>0.009414575706514938</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9440202378999487</v>
+        <v>0.6178829777707762</v>
       </c>
       <c r="G9">
-        <v>0.8580996592055641</v>
+        <v>0.4708168023301482</v>
       </c>
       <c r="H9">
-        <v>0.4698264765418116</v>
+        <v>0.5383749227036247</v>
       </c>
       <c r="I9">
-        <v>0.3455155849309506</v>
+        <v>0.3881272556920408</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.778675090099583</v>
+        <v>1.108990485562089</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.903078637499959</v>
+        <v>0.9150931093384997</v>
       </c>
       <c r="C10">
-        <v>0.8731590744452262</v>
+        <v>0.2824986988164255</v>
       </c>
       <c r="D10">
-        <v>0.02331129425989076</v>
+        <v>0.01042794970818051</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.118689024794406</v>
+        <v>0.6504825209567002</v>
       </c>
       <c r="G10">
-        <v>1.026463632050707</v>
+        <v>0.5028547318597276</v>
       </c>
       <c r="H10">
-        <v>0.5351105904953499</v>
+        <v>0.5454225575349199</v>
       </c>
       <c r="I10">
-        <v>0.3898034648235509</v>
+        <v>0.3901082456735452</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.705122570128012</v>
+        <v>1.295350485141512</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.107895312732126</v>
+        <v>0.9785747755825582</v>
       </c>
       <c r="C11">
-        <v>0.9326426121179736</v>
+        <v>0.3010660497691333</v>
       </c>
       <c r="D11">
-        <v>0.02436750841724233</v>
+        <v>0.01088641507052301</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.202517826068515</v>
+        <v>0.6659006106100662</v>
       </c>
       <c r="G11">
-        <v>1.107687849159163</v>
+        <v>0.5179504071109733</v>
       </c>
       <c r="H11">
-        <v>0.5671094191699524</v>
+        <v>0.5490571630469816</v>
       </c>
       <c r="I11">
-        <v>0.4124825671458581</v>
+        <v>0.3914146614363929</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.161688803104937</v>
+        <v>1.380939431872932</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.185537922899243</v>
+        <v>1.002590726239532</v>
       </c>
       <c r="C12">
-        <v>0.9551966280431543</v>
+        <v>0.3080845511533141</v>
       </c>
       <c r="D12">
-        <v>0.02476677877163524</v>
+        <v>0.01105964243858182</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.234997528294784</v>
+        <v>0.6718246552298268</v>
       </c>
       <c r="G12">
-        <v>1.139229931805346</v>
+        <v>0.5237429473663724</v>
       </c>
       <c r="H12">
-        <v>0.5796095324670318</v>
+        <v>0.5504955713287529</v>
       </c>
       <c r="I12">
-        <v>0.4214942643381647</v>
+        <v>0.3919682672765674</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.341171121611652</v>
+        <v>1.413474866104522</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.168812482441183</v>
+        <v>0.9974195135242212</v>
       </c>
       <c r="C13">
-        <v>0.9503379216045573</v>
+        <v>0.3065735539886703</v>
       </c>
       <c r="D13">
-        <v>0.02468082306012676</v>
+        <v>0.01102235220669456</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.22796780391721</v>
+        <v>0.6705449864332991</v>
       </c>
       <c r="G13">
-        <v>1.132399773612747</v>
+        <v>0.522492015653711</v>
       </c>
       <c r="H13">
-        <v>0.5768994465831554</v>
+        <v>0.5501830172665336</v>
       </c>
       <c r="I13">
-        <v>0.4195335151199515</v>
+        <v>0.3918464091016887</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.30219319936198</v>
+        <v>1.406462101960187</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.114281341755998</v>
+        <v>0.9805510544196068</v>
       </c>
       <c r="C14">
-        <v>0.9344975605845036</v>
+        <v>0.3016437192561341</v>
       </c>
       <c r="D14">
-        <v>0.02440037173927578</v>
+        <v>0.01090067439325537</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.205174523294801</v>
+        <v>0.6663862654122426</v>
       </c>
       <c r="G14">
-        <v>1.110266360550838</v>
+        <v>0.5184254304049887</v>
       </c>
       <c r="H14">
-        <v>0.5681298048936583</v>
+        <v>0.5491742554743695</v>
       </c>
       <c r="I14">
-        <v>0.4132150910892776</v>
+        <v>0.3914590230277497</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.176312195603387</v>
+        <v>1.383613595440522</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.080890329373005</v>
+        <v>0.9702155782770205</v>
       </c>
       <c r="C15">
-        <v>0.9247986759096136</v>
+        <v>0.2986224102535004</v>
       </c>
       <c r="D15">
-        <v>0.02422849077042599</v>
+        <v>0.01082609266985912</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.191312292107568</v>
+        <v>0.6638500975968071</v>
       </c>
       <c r="G15">
-        <v>1.096815023722286</v>
+        <v>0.5159444788566958</v>
       </c>
       <c r="H15">
-        <v>0.5628097151944473</v>
+        <v>0.5485644548630688</v>
       </c>
       <c r="I15">
-        <v>0.4094020106198712</v>
+        <v>0.3912294261214129</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.100119005021469</v>
+        <v>1.369634709883996</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.889704763650798</v>
+        <v>0.910941261917344</v>
       </c>
       <c r="C16">
-        <v>0.8692756402288637</v>
+        <v>0.2812835376425085</v>
       </c>
       <c r="D16">
-        <v>0.02324218074231155</v>
+        <v>0.01039793536487821</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.113307278276054</v>
+        <v>0.6494868326388996</v>
       </c>
       <c r="G16">
-        <v>1.021258266505711</v>
+        <v>0.5018787853107227</v>
       </c>
       <c r="H16">
-        <v>0.5330699206965619</v>
+        <v>0.54519368873774</v>
       </c>
       <c r="I16">
-        <v>0.3883771109855161</v>
+        <v>0.390031075960465</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.676112479694027</v>
+        <v>1.289774070735277</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.772560594547144</v>
+        <v>0.8745385260229455</v>
       </c>
       <c r="C17">
-        <v>0.8352633691556548</v>
+        <v>0.2706246455228154</v>
       </c>
       <c r="D17">
-        <v>0.02263605211586039</v>
+        <v>0.01013461357250023</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.066643490958228</v>
+        <v>0.6408268028638986</v>
       </c>
       <c r="G17">
-        <v>0.9761707807866884</v>
+        <v>0.4933843132880895</v>
       </c>
       <c r="H17">
-        <v>0.5154489372470863</v>
+        <v>0.5432359127933637</v>
       </c>
       <c r="I17">
-        <v>0.3761664191245444</v>
+        <v>0.3894001619619658</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.425946312697263</v>
+        <v>1.240995878345572</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.7052315551839</v>
+        <v>0.8535864145482606</v>
       </c>
       <c r="C18">
-        <v>0.8157174614326266</v>
+        <v>0.264485918019659</v>
       </c>
       <c r="D18">
-        <v>0.02228707256126228</v>
+        <v>0.009982921519334553</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.040207748592749</v>
+        <v>0.6359011088653972</v>
       </c>
       <c r="G18">
-        <v>0.9506657130049518</v>
+        <v>0.4885475309228298</v>
       </c>
       <c r="H18">
-        <v>0.5055267784787816</v>
+        <v>0.5421501679670371</v>
       </c>
       <c r="I18">
-        <v>0.3693773646193534</v>
+        <v>0.3890753840829078</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.285248140581146</v>
+        <v>1.213015977732894</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.682443190366143</v>
+        <v>0.8464899880306689</v>
       </c>
       <c r="C19">
-        <v>0.8091023546493261</v>
+        <v>0.2624060824649916</v>
       </c>
       <c r="D19">
-        <v>0.02216885671659696</v>
+        <v>0.009931521243824903</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.031323501346463</v>
+        <v>0.6342428272959069</v>
       </c>
       <c r="G19">
-        <v>0.942100415474215</v>
+        <v>0.4869182626271993</v>
       </c>
       <c r="H19">
-        <v>0.5022024475506157</v>
+        <v>0.5417894647020347</v>
       </c>
       <c r="I19">
-        <v>0.367117303930435</v>
+        <v>0.388971945982135</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.238118711716652</v>
+        <v>1.203555285280785</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.785025619614885</v>
+        <v>0.8784151408752905</v>
       </c>
       <c r="C20">
-        <v>0.8388822399812739</v>
+        <v>0.2717601343211413</v>
       </c>
       <c r="D20">
-        <v>0.02270061252518474</v>
+        <v>0.0101626692356156</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.071568401459643</v>
+        <v>0.6417429449968068</v>
       </c>
       <c r="G20">
-        <v>0.9809253346828228</v>
+        <v>0.4942834833335468</v>
       </c>
       <c r="H20">
-        <v>0.5173023331540918</v>
+        <v>0.5434401457171987</v>
       </c>
       <c r="I20">
-        <v>0.3774416338218174</v>
+        <v>0.3894633754102017</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.452237045812566</v>
+        <v>1.2461804755076</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.130296190703632</v>
+        <v>0.9855063693745478</v>
       </c>
       <c r="C21">
-        <v>0.9391494676066543</v>
+        <v>0.3030920740922625</v>
       </c>
       <c r="D21">
-        <v>0.0244827675967727</v>
+        <v>0.01093642468708111</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.211848545154325</v>
+        <v>0.6676054533170088</v>
       </c>
       <c r="G21">
-        <v>1.116745142377482</v>
+        <v>0.5196178095747825</v>
       </c>
       <c r="H21">
-        <v>0.5706948070410363</v>
+        <v>0.5494688654798381</v>
       </c>
       <c r="I21">
-        <v>0.4150589342783491</v>
+        <v>0.3915712043732782</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.213092820532367</v>
+        <v>1.390321305978503</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.356430110878591</v>
+        <v>1.055360965712737</v>
       </c>
       <c r="C22">
-        <v>1.004846972130167</v>
+        <v>0.3234960196451766</v>
       </c>
       <c r="D22">
-        <v>0.02564330282957172</v>
+        <v>0.01143987390219081</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.307882895192051</v>
+        <v>0.6850071795904</v>
       </c>
       <c r="G22">
-        <v>1.210155377542179</v>
+        <v>0.5366195707941301</v>
       </c>
       <c r="H22">
-        <v>0.6078533670968511</v>
+        <v>0.5537709290274506</v>
       </c>
       <c r="I22">
-        <v>0.44215037870282</v>
+        <v>0.3932923647542594</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.749900847312276</v>
+        <v>1.485256662568048</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.235694376042602</v>
+        <v>1.018091107712053</v>
       </c>
       <c r="C23">
-        <v>0.9697676737972358</v>
+        <v>0.3126128481546857</v>
       </c>
       <c r="D23">
-        <v>0.02502436557124454</v>
+        <v>0.01117138568170617</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.256188196202004</v>
+        <v>0.6756735734754216</v>
       </c>
       <c r="G23">
-        <v>1.159830249485594</v>
+        <v>0.5275043746058543</v>
       </c>
       <c r="H23">
-        <v>0.5877940974859541</v>
+        <v>0.5514415758454447</v>
       </c>
       <c r="I23">
-        <v>0.4274387937564441</v>
+        <v>0.3923421066194308</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.459124068898362</v>
+        <v>1.434518333119243</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.779390124245538</v>
+        <v>0.8766625970000632</v>
       </c>
       <c r="C24">
-        <v>0.8372461231984119</v>
+        <v>0.2712468134175765</v>
       </c>
       <c r="D24">
-        <v>0.02267142633785824</v>
+        <v>0.01014998621885965</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.069340636572448</v>
+        <v>0.6413285919005318</v>
       </c>
       <c r="G24">
-        <v>0.9787745126741498</v>
+        <v>0.4938768228629584</v>
       </c>
       <c r="H24">
-        <v>0.5164637676023034</v>
+        <v>0.543347688056059</v>
       </c>
       <c r="I24">
-        <v>0.3768643939591811</v>
+        <v>0.3894346784732221</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.440341378419291</v>
+        <v>1.243836322458449</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.288985966473319</v>
+        <v>0.7235703261313233</v>
       </c>
       <c r="C25">
-        <v>0.6949218789754923</v>
+        <v>0.2263214356172512</v>
       </c>
       <c r="D25">
-        <v>0.02011992379330252</v>
+        <v>0.009039289877090795</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8829565091143365</v>
+        <v>0.606393250757165</v>
       </c>
       <c r="G25">
-        <v>0.7995323063289561</v>
+        <v>0.4594731483316679</v>
       </c>
       <c r="H25">
-        <v>0.4475255558188849</v>
+        <v>0.5361567054087288</v>
       </c>
       <c r="I25">
-        <v>0.3311124957434544</v>
+        <v>0.3877529350223199</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.460642715842738</v>
+        <v>1.041030644497908</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_96/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_96/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6104084714485225</v>
+        <v>1.928818662834402</v>
       </c>
       <c r="C2">
-        <v>0.1929830536217594</v>
+        <v>0.5904482424132311</v>
       </c>
       <c r="D2">
-        <v>0.008214379226505031</v>
+        <v>0.01823133385290987</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5824442739066455</v>
+        <v>0.7555615279322296</v>
       </c>
       <c r="G2">
-        <v>0.4356998002769217</v>
+        <v>0.677870225669281</v>
       </c>
       <c r="H2">
-        <v>0.5321681332819139</v>
+        <v>0.4020972037379096</v>
       </c>
       <c r="I2">
-        <v>0.3877415763175662</v>
+        <v>0.3032506012480738</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.893861172343648</v>
+        <v>2.802634354979048</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5334565221141077</v>
+        <v>1.684925652897221</v>
       </c>
       <c r="C3">
-        <v>0.1702290875777237</v>
+        <v>0.5197155240146571</v>
       </c>
       <c r="D3">
-        <v>0.007651219918592744</v>
+        <v>0.01694529772856157</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5672997128081363</v>
+        <v>0.6740615585465122</v>
       </c>
       <c r="G3">
-        <v>0.4205357837508217</v>
+        <v>0.6004407892755665</v>
       </c>
       <c r="H3">
-        <v>0.5302709733468731</v>
+        <v>0.3740045985880585</v>
       </c>
       <c r="I3">
-        <v>0.3884873060433556</v>
+        <v>0.2873032962768249</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7953148875374296</v>
+        <v>2.382769508245161</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4860848318545834</v>
+        <v>1.535145510753921</v>
       </c>
       <c r="C4">
-        <v>0.1561800408025817</v>
+        <v>0.4762765769208386</v>
       </c>
       <c r="D4">
-        <v>0.007303532028423376</v>
+        <v>0.01615262688097729</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.558530012890607</v>
+        <v>0.6260371332260348</v>
       </c>
       <c r="G4">
-        <v>0.4116845254989272</v>
+        <v>0.55497741559779</v>
       </c>
       <c r="H4">
-        <v>0.5295008415172475</v>
+        <v>0.3579059748940949</v>
       </c>
       <c r="I4">
-        <v>0.3893129358044156</v>
+        <v>0.2787627805493464</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7353469505384709</v>
+        <v>2.134474720881116</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4667508605519686</v>
+        <v>1.47408432144411</v>
       </c>
       <c r="C5">
-        <v>0.1504355844599274</v>
+        <v>0.4585665933575456</v>
       </c>
       <c r="D5">
-        <v>0.007161388479673292</v>
+        <v>0.01582884653261019</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5550884889733325</v>
+        <v>0.6069245451916601</v>
       </c>
       <c r="G5">
-        <v>0.4081920592744268</v>
+        <v>0.5369201127240473</v>
       </c>
       <c r="H5">
-        <v>0.5292858901985653</v>
+        <v>0.3516109506714713</v>
       </c>
       <c r="I5">
-        <v>0.3897413065160222</v>
+        <v>0.2755707883940524</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7110387731222829</v>
+        <v>2.035265652233534</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4635387180390751</v>
+        <v>1.463943176959646</v>
       </c>
       <c r="C6">
-        <v>0.1494805606319289</v>
+        <v>0.4556251911863285</v>
       </c>
       <c r="D6">
-        <v>0.007137758629617963</v>
+        <v>0.01577503729378904</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.554524986212698</v>
+        <v>0.6037771963667424</v>
       </c>
       <c r="G6">
-        <v>0.40761902222782</v>
+        <v>0.533948590661069</v>
       </c>
       <c r="H6">
-        <v>0.5292561590788551</v>
+        <v>0.3505810277021766</v>
       </c>
       <c r="I6">
-        <v>0.389817972692299</v>
+        <v>0.2750574509120369</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7070100368049452</v>
+        <v>2.018900217629707</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.485824205397563</v>
+        <v>1.534322140221235</v>
       </c>
       <c r="C7">
-        <v>0.1561026470763238</v>
+        <v>0.4760377752299405</v>
       </c>
       <c r="D7">
-        <v>0.007301616856231874</v>
+        <v>0.01614826333817376</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5584830651447561</v>
+        <v>0.6257775829979337</v>
       </c>
       <c r="G7">
-        <v>0.4116369626886041</v>
+        <v>0.5547320550167427</v>
       </c>
       <c r="H7">
-        <v>0.5294975427239308</v>
+        <v>0.3578200340138125</v>
       </c>
       <c r="I7">
-        <v>0.3893183415102115</v>
+        <v>0.2787185977995073</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7350186071727052</v>
+        <v>2.133129269294727</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5839016822422138</v>
+        <v>1.844719745177514</v>
       </c>
       <c r="C8">
-        <v>0.1851538293472004</v>
+        <v>0.5660577238287772</v>
       </c>
       <c r="D8">
-        <v>0.008020609943624635</v>
+        <v>0.01778854062745694</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5771120908417089</v>
+        <v>0.7270106041740831</v>
       </c>
       <c r="G8">
-        <v>0.4303752362104518</v>
+        <v>0.6507075256078849</v>
       </c>
       <c r="H8">
-        <v>0.5314318378388236</v>
+        <v>0.3921570147601869</v>
       </c>
       <c r="I8">
-        <v>0.3879220434419537</v>
+        <v>0.2974756927236157</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8597663754030833</v>
+        <v>2.655620388833711</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7752098721710468</v>
+        <v>2.45398967626079</v>
       </c>
       <c r="C9">
-        <v>0.2414952437605677</v>
+        <v>0.7427981108115205</v>
       </c>
       <c r="D9">
-        <v>0.009414575706514938</v>
+        <v>0.02098098563610762</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6178829777707762</v>
+        <v>0.9440202378999487</v>
       </c>
       <c r="G9">
-        <v>0.4708168023301482</v>
+        <v>0.8580996592055499</v>
       </c>
       <c r="H9">
-        <v>0.5383749227036247</v>
+        <v>0.469826476541698</v>
       </c>
       <c r="I9">
-        <v>0.3881272556920408</v>
+        <v>0.3455155849309506</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.108990485562089</v>
+        <v>3.778675090099554</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9150931093384997</v>
+        <v>2.903078637500073</v>
       </c>
       <c r="C10">
-        <v>0.2824986988164255</v>
+        <v>0.8731590744452262</v>
       </c>
       <c r="D10">
-        <v>0.01042794970818051</v>
+        <v>0.02331129425970957</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6504825209567002</v>
+        <v>1.118689024794406</v>
       </c>
       <c r="G10">
-        <v>0.5028547318597276</v>
+        <v>1.026463632050664</v>
       </c>
       <c r="H10">
-        <v>0.5454225575349199</v>
+        <v>0.5351105904952362</v>
       </c>
       <c r="I10">
-        <v>0.3901082456735452</v>
+        <v>0.3898034648235509</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.295350485141512</v>
+        <v>4.705122570127941</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9785747755825582</v>
+        <v>3.107895312732012</v>
       </c>
       <c r="C11">
-        <v>0.3010660497691333</v>
+        <v>0.9326426121178599</v>
       </c>
       <c r="D11">
-        <v>0.01088641507052301</v>
+        <v>0.02436750841713575</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6659006106100662</v>
+        <v>1.202517826068515</v>
       </c>
       <c r="G11">
-        <v>0.5179504071109733</v>
+        <v>1.107687849159191</v>
       </c>
       <c r="H11">
-        <v>0.5490571630469816</v>
+        <v>0.5671094191699808</v>
       </c>
       <c r="I11">
-        <v>0.3914146614363929</v>
+        <v>0.4124825671458652</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.380939431872932</v>
+        <v>5.16168880310488</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.002590726239532</v>
+        <v>3.185537922899186</v>
       </c>
       <c r="C12">
-        <v>0.3080845511533141</v>
+        <v>0.9551966280430122</v>
       </c>
       <c r="D12">
-        <v>0.01105964243858182</v>
+        <v>0.02476677877151801</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6718246552298268</v>
+        <v>1.234997528294798</v>
       </c>
       <c r="G12">
-        <v>0.5237429473663724</v>
+        <v>1.139229931805346</v>
       </c>
       <c r="H12">
-        <v>0.5504955713287529</v>
+        <v>0.5796095324670318</v>
       </c>
       <c r="I12">
-        <v>0.3919682672765674</v>
+        <v>0.4214942643381647</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.413474866104522</v>
+        <v>5.341171121611666</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9974195135242212</v>
+        <v>3.168812482441183</v>
       </c>
       <c r="C13">
-        <v>0.3065735539886703</v>
+        <v>0.9503379216046994</v>
       </c>
       <c r="D13">
-        <v>0.01102235220669456</v>
+        <v>0.02468082306000596</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6705449864332991</v>
+        <v>1.22796780391721</v>
       </c>
       <c r="G13">
-        <v>0.522492015653711</v>
+        <v>1.132399773612718</v>
       </c>
       <c r="H13">
-        <v>0.5501830172665336</v>
+        <v>0.5768994465830133</v>
       </c>
       <c r="I13">
-        <v>0.3918464091016887</v>
+        <v>0.4195335151199799</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.406462101960187</v>
+        <v>5.302193199361952</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9805510544196068</v>
+        <v>3.114281341756055</v>
       </c>
       <c r="C14">
-        <v>0.3016437192561341</v>
+        <v>0.9344975605845036</v>
       </c>
       <c r="D14">
-        <v>0.01090067439325537</v>
+        <v>0.02440037173927578</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6663862654122426</v>
+        <v>1.205174523294801</v>
       </c>
       <c r="G14">
-        <v>0.5184254304049887</v>
+        <v>1.110266360550895</v>
       </c>
       <c r="H14">
-        <v>0.5491742554743695</v>
+        <v>0.5681298048938004</v>
       </c>
       <c r="I14">
-        <v>0.3914590230277497</v>
+        <v>0.4132150910892776</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.383613595440522</v>
+        <v>5.176312195603373</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9702155782770205</v>
+        <v>3.080890329373119</v>
       </c>
       <c r="C15">
-        <v>0.2986224102535004</v>
+        <v>0.924798675909642</v>
       </c>
       <c r="D15">
-        <v>0.01082609266985912</v>
+        <v>0.02422849077053613</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6638500975968071</v>
+        <v>1.191312292107582</v>
       </c>
       <c r="G15">
-        <v>0.5159444788566958</v>
+        <v>1.096815023722371</v>
       </c>
       <c r="H15">
-        <v>0.5485644548630688</v>
+        <v>0.5628097151944473</v>
       </c>
       <c r="I15">
-        <v>0.3912294261214129</v>
+        <v>0.4094020106198712</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.369634709883996</v>
+        <v>5.100119005021469</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.910941261917344</v>
+        <v>2.889704763650741</v>
       </c>
       <c r="C16">
-        <v>0.2812835376425085</v>
+        <v>0.8692756402287785</v>
       </c>
       <c r="D16">
-        <v>0.01039793536487821</v>
+        <v>0.02324218074219075</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6494868326388996</v>
+        <v>1.113307278276054</v>
       </c>
       <c r="G16">
-        <v>0.5018787853107227</v>
+        <v>1.021258266505725</v>
       </c>
       <c r="H16">
-        <v>0.54519368873774</v>
+        <v>0.5330699206965619</v>
       </c>
       <c r="I16">
-        <v>0.390031075960465</v>
+        <v>0.3883771109855232</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.289774070735277</v>
+        <v>4.676112479694041</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8745385260229455</v>
+        <v>2.772560594547144</v>
       </c>
       <c r="C17">
-        <v>0.2706246455228154</v>
+        <v>0.8352633691556548</v>
       </c>
       <c r="D17">
-        <v>0.01013461357250023</v>
+        <v>0.02263605211563302</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6408268028638986</v>
+        <v>1.066643490958228</v>
       </c>
       <c r="G17">
-        <v>0.4933843132880895</v>
+        <v>0.9761707807866742</v>
       </c>
       <c r="H17">
-        <v>0.5432359127933637</v>
+        <v>0.5154489372470863</v>
       </c>
       <c r="I17">
-        <v>0.3894001619619658</v>
+        <v>0.3761664191245586</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.240995878345572</v>
+        <v>4.425946312697292</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8535864145482606</v>
+        <v>2.705231555183957</v>
       </c>
       <c r="C18">
-        <v>0.264485918019659</v>
+        <v>0.8157174614325982</v>
       </c>
       <c r="D18">
-        <v>0.009982921519334553</v>
+        <v>0.02228707256148965</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6359011088653972</v>
+        <v>1.040207748592707</v>
       </c>
       <c r="G18">
-        <v>0.4885475309228298</v>
+        <v>0.9506657130049376</v>
       </c>
       <c r="H18">
-        <v>0.5421501679670371</v>
+        <v>0.5055267784787816</v>
       </c>
       <c r="I18">
-        <v>0.3890753840829078</v>
+        <v>0.3693773646193534</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.213015977732894</v>
+        <v>4.285248140581132</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8464899880306689</v>
+        <v>2.682443190365859</v>
       </c>
       <c r="C19">
-        <v>0.2624060824649916</v>
+        <v>0.8091023546492409</v>
       </c>
       <c r="D19">
-        <v>0.009931521243824903</v>
+        <v>0.02216885671665381</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6342428272959069</v>
+        <v>1.031323501346478</v>
       </c>
       <c r="G19">
-        <v>0.4869182626271993</v>
+        <v>0.9421004154741865</v>
       </c>
       <c r="H19">
-        <v>0.5417894647020347</v>
+        <v>0.5022024475506299</v>
       </c>
       <c r="I19">
-        <v>0.388971945982135</v>
+        <v>0.3671173039304492</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.203555285280785</v>
+        <v>4.238118711716623</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8784151408752905</v>
+        <v>2.785025619615055</v>
       </c>
       <c r="C20">
-        <v>0.2717601343211413</v>
+        <v>0.8388822399811886</v>
       </c>
       <c r="D20">
-        <v>0.0101626692356156</v>
+        <v>0.02270061252528777</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6417429449968068</v>
+        <v>1.071568401459629</v>
       </c>
       <c r="G20">
-        <v>0.4942834833335468</v>
+        <v>0.9809253346829223</v>
       </c>
       <c r="H20">
-        <v>0.5434401457171987</v>
+        <v>0.5173023331540918</v>
       </c>
       <c r="I20">
-        <v>0.3894633754102017</v>
+        <v>0.3774416338218174</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.2461804755076</v>
+        <v>4.452237045812623</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9855063693745478</v>
+        <v>3.130296190703461</v>
       </c>
       <c r="C21">
-        <v>0.3030920740922625</v>
+        <v>0.939149467606569</v>
       </c>
       <c r="D21">
-        <v>0.01093642468708111</v>
+        <v>0.02448276759665902</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6676054533170088</v>
+        <v>1.211848545154339</v>
       </c>
       <c r="G21">
-        <v>0.5196178095747825</v>
+        <v>1.116745142377539</v>
       </c>
       <c r="H21">
-        <v>0.5494688654798381</v>
+        <v>0.5706948070410363</v>
       </c>
       <c r="I21">
-        <v>0.3915712043732782</v>
+        <v>0.4150589342783491</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.390321305978503</v>
+        <v>5.213092820532353</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.055360965712737</v>
+        <v>3.356430110878534</v>
       </c>
       <c r="C22">
-        <v>0.3234960196451766</v>
+        <v>1.004846972130395</v>
       </c>
       <c r="D22">
-        <v>0.01143987390219081</v>
+        <v>0.02564330282926619</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6850071795904</v>
+        <v>1.307882895192037</v>
       </c>
       <c r="G22">
-        <v>0.5366195707941301</v>
+        <v>1.210155377542208</v>
       </c>
       <c r="H22">
-        <v>0.5537709290274506</v>
+        <v>0.6078533670968511</v>
       </c>
       <c r="I22">
-        <v>0.3932923647542594</v>
+        <v>0.44215037870282</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.485256662568048</v>
+        <v>5.749900847312304</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.018091107712053</v>
+        <v>3.235694376042488</v>
       </c>
       <c r="C23">
-        <v>0.3126128481546857</v>
+        <v>0.9697676737973211</v>
       </c>
       <c r="D23">
-        <v>0.01117138568170617</v>
+        <v>0.02502436557105625</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6756735734754216</v>
+        <v>1.256188196202018</v>
       </c>
       <c r="G23">
-        <v>0.5275043746058543</v>
+        <v>1.159830249485566</v>
       </c>
       <c r="H23">
-        <v>0.5514415758454447</v>
+        <v>0.5877940974860678</v>
       </c>
       <c r="I23">
-        <v>0.3923421066194308</v>
+        <v>0.4274387937564512</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.434518333119243</v>
+        <v>5.459124068898376</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8766625970000632</v>
+        <v>2.779390124245595</v>
       </c>
       <c r="C24">
-        <v>0.2712468134175765</v>
+        <v>0.837246123198554</v>
       </c>
       <c r="D24">
-        <v>0.01014998621885965</v>
+        <v>0.0226714263377481</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6413285919005318</v>
+        <v>1.069340636572448</v>
       </c>
       <c r="G24">
-        <v>0.4938768228629584</v>
+        <v>0.9787745126741783</v>
       </c>
       <c r="H24">
-        <v>0.543347688056059</v>
+        <v>0.5164637676023034</v>
       </c>
       <c r="I24">
-        <v>0.3894346784732221</v>
+        <v>0.376864393959174</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.243836322458449</v>
+        <v>4.440341378419305</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7235703261313233</v>
+        <v>2.288985966473206</v>
       </c>
       <c r="C25">
-        <v>0.2263214356172512</v>
+        <v>0.6949218789757481</v>
       </c>
       <c r="D25">
-        <v>0.009039289877090795</v>
+        <v>0.02011992379330252</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.606393250757165</v>
+        <v>0.8829565091143365</v>
       </c>
       <c r="G25">
-        <v>0.4594731483316679</v>
+        <v>0.7995323063288708</v>
       </c>
       <c r="H25">
-        <v>0.5361567054087288</v>
+        <v>0.4475255558187854</v>
       </c>
       <c r="I25">
-        <v>0.3877529350223199</v>
+        <v>0.3311124957434544</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.041030644497908</v>
+        <v>3.460642715842695</v>
       </c>
       <c r="N25">
         <v>0</v>
